--- a/4/Seryoga_afchkh.xlsx
+++ b/4/Seryoga_afchkh.xlsx
@@ -687,11 +687,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-966043424"/>
-        <c:axId val="-966035264"/>
+        <c:axId val="436930096"/>
+        <c:axId val="436934448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-966043424"/>
+        <c:axId val="436930096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -748,12 +748,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-966035264"/>
+        <c:crossAx val="436934448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-966035264"/>
+        <c:axId val="436934448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +810,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-966043424"/>
+        <c:crossAx val="436930096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1713,23 +1713,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <f>(B4+B5-B1*B2*B3*B4*B5+(B4+B5)^2*B1*B2*B3)/(2*(B1*B2*B3*(B4+B5)-(B1*B2*B3)^2*B4*B5))</f>
+        <v>0.12255923536336417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1737,7 +1741,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -1820,300 +1824,300 @@
         <v>-29.478202634329655</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B71" si="0">$B$1/SQRT($B$4*$B$4*A8*A8+1)</f>
+        <f>$B$1/SQRT($B$4*$B$4*A8*A8+1)</f>
         <v>3.2489848508263983</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C71" si="1">$B$2/A8</f>
+        <f>$B$2/A8</f>
         <v>3.5</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D71" si="2">$B$3/SQRT($B$5*$B$5*A8*A8+1)</f>
+        <f>$B$3/SQRT($B$5*$B$5*A8*A8+1)</f>
         <v>1.2935483472729861</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E71" si="3">B8*C8*D8</f>
+        <f t="shared" ref="E8:E71" si="0">B8*C8*D8</f>
         <v>14.709516444355097</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F71" si="4">-ATAN($B$4*A8)-PI()/2-ATAN($B$5*A8)</f>
+        <f>-ATAN($B$4*A8)-PI()/2-ATAN($B$5*A8)</f>
         <v>-1.6954597729049787</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G71" si="5">E8*COS(F8)</f>
+        <f t="shared" ref="G8:G71" si="1">E8*COS(F8)</f>
         <v>-1.8289930179776241</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H71" si="6">E8*SIN(F8)</f>
+        <f t="shared" ref="H8:H71" si="2">E8*SIN(F8)</f>
         <v>-14.595364283461448</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.5</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A9*A9+1)</f>
         <v>3.2477172510548376</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f>$B$2/A9</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A9*A9+1)</f>
         <v>1.2856172587287868</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.7424164819970596</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A9)-PI()/2-ATAN($B$5*A9)</f>
         <v>-1.7571687110960554</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.805224239598884</v>
       </c>
       <c r="H9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-9.5737058840060776</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A10*A10+1)</f>
         <v>3.2459451013529952</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f>$B$2/A10</f>
         <v>1.75</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A10*A10+1)</f>
         <v>1.2747548783981961</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7.2411226176843018</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A10)-PI()/2-ATAN($B$5*A10)</f>
         <v>-1.8181502823667199</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.7729114713216945</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-7.020729426433916</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.5</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A11*A11+1)</f>
         <v>3.2436708800693874</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f>$B$2/A11</f>
         <v>1.4</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A11*A11+1)</f>
         <v>1.2611852501889316</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.7272178185752063</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A11)-PI()/2-ATAN($B$5*A11)</f>
         <v>-1.8781937999177181</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.7329365987640186</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-5.4587502861066595</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A12*A12+1)</f>
         <v>3.2408977571374833</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f>$B$2/A12</f>
         <v>1.1666666666666667</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A12*A12+1)</f>
         <v>1.2451741707874968</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.7080625402425111</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A12)-PI()/2-ATAN($B$5*A12)</f>
         <v>-1.9371129689835307</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.6863286216865001</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-4.3956966071961423</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.5</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A13*A13+1)</f>
         <v>3.2376295818623673</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f>$B$2/A13</f>
         <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A13*A13+1)</f>
         <v>1.2270158632758228</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.9726228563561938</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A13)-PI()/2-ATAN($B$5*A13)</f>
         <v>-1.9947488591310854</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.6342030549098447</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-3.6209270545216699</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A14*A14+1)</f>
         <v>3.2338708681824651</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f>$B$2/A14</f>
         <v>0.875</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A14*A14+1)</f>
         <v>1.207019698150837</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.4154276092758362</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A14)-PI()/2-ATAN($B$5*A14)</f>
         <v>-2.0509713563984233</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.5777035677705695</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-3.0291908501194951</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.5</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A15*A15+1)</f>
         <v>3.2296267775161058</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f>$B$2/A15</f>
         <v>0.77777777777777779</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A15*A15+1)</f>
         <v>1.1854979567276382</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.9778901800186079</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A15)-PI()/2-ATAN($B$5*A15)</f>
         <v>-2.1056792153538249</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.5179505998823994</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-2.5619632902459633</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A16*A16+1)</f>
         <v>3.2249030993194201</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f>$B$2/A16</f>
         <v>0.7</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A16*A16+1)</f>
         <v>1.1627553482998907</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.6248413285377845</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A16)-PI()/2-ATAN($B$5*A16)</f>
         <v>-2.158798930342464</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.4559999999999997</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-2.1840000000000006</v>
       </c>
     </row>
@@ -2122,31 +2126,31 @@
         <v>5.5</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A17*A17+1)</f>
         <v>3.2197062294972114</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f>$B$2/A17</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A17*A17+1)</f>
         <v>1.1390806812796412</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.3338669234465383</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A17)-PI()/2-ATAN($B$5*A17)</f>
         <v>-2.2102827002138445</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.3928130024921701</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-1.8727003915326541</v>
       </c>
     </row>
@@ -2155,31 +2159,31 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A18*A18+1)</f>
         <v>3.2140431468219672</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f>$B$2/A18</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A18*A18+1)</f>
         <v>1.1147408034263073</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.0899812731788301</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A18)-PI()/2-ATAN($B$5*A18)</f>
         <v>-2.2601057746749782</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.3292373795483969</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-1.6128080205187207</v>
       </c>
     </row>
@@ -2188,31 +2192,31 @@
         <v>6.5</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A19*A19+1)</f>
         <v>3.2079213875278145</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f>$B$2/A19</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A19*A19+1)</f>
         <v>1.0899767011908281</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.8827628462768846</v>
       </c>
       <c r="F19">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A19)-PI()/2-ATAN($B$5*A19)</f>
         <v>-2.3082634519236609</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.265998548328799</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-1.3935722481988546</v>
       </c>
     </row>
@@ -2221,31 +2225,31 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A20*A20+1)</f>
         <v>3.2013490182560385</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f>$B$2/A20</f>
         <v>0.5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A20*A20+1)</f>
         <v>1.0650014966747527</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.7047207479104656</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A20)-PI()/2-ATAN($B$5*A20)</f>
         <v>-2.3547679576364704</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.2036988046446699</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-1.2071379440865115</v>
       </c>
     </row>
@@ -2254,31 +2258,31 @@
         <v>7.5</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A21*A21+1)</f>
         <v>3.1943346075365464</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f>$B$2/A21</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A21*A21+1)</f>
         <v>1.04</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.5503170628577372</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A21)-PI()/2-ATAN($B$5*A21)</f>
         <v>-2.3996453855838755</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.1428226415094338</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-1.0475874213836482</v>
       </c>
     </row>
@@ -2287,31 +2291,31 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A22*A22+1)</f>
         <v>3.1868871959954905</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f>$B$2/A22</f>
         <v>0.4375</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A22*A22+1)</f>
         <v>1.0151294522759393</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.4153575860095466</v>
       </c>
       <c r="F22">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A22)-PI()/2-ATAN($B$5*A22)</f>
         <v>-2.4429328288683303</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.0837461890243905</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.91034679878048752</v>
       </c>
     </row>
@@ -2320,31 +2324,31 @@
         <v>8.5</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A23*A23+1)</f>
         <v>3.1790162654830363</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f>$B$2/A23</f>
         <v>0.41176470588235292</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A23*A23+1)</f>
         <v>0.99052111308729707</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.2965987710977738</v>
       </c>
       <c r="F23">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A23)-PI()/2-ATAN($B$5*A23)</f>
         <v>-2.4846757839906095</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-1.0267490698612474</v>
       </c>
       <c r="H23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.79180472387535072</v>
       </c>
     </row>
@@ -2353,31 +2357,31 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A24*A24+1)</f>
         <v>3.1707317073170733</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f>$B$2/A24</f>
         <v>0.3888888888888889</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A24*A24+1)</f>
         <v>0.96628239012131623</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.1914864160032492</v>
       </c>
       <c r="F24">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A24)-PI()/2-ATAN($B$5*A24)</f>
         <v>-2.5249258709291942</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.97202730550415595</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.68905935656850215</v>
       </c>
     </row>
@@ -2386,31 +2390,31 @@
         <v>9.5</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A25*A25+1)</f>
         <v>3.162043789838572</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f>$B$2/A25</f>
         <v>0.36842105263157893</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A25*A25+1)</f>
         <v>0.94249926367273784</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.0979772423877185</v>
       </c>
       <c r="F25">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A25)-PI()/2-ATAN($B$5*A25)</f>
         <v>-2.5637388823174838</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.91970626152426738</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.5997452936992459</v>
       </c>
     </row>
@@ -2419,31 +2423,31 @@
         <v>10</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A26*A26+1)</f>
         <v>3.1529631254723287</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f>$B$2/A26</f>
         <v>0.35</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A26*A26+1)</f>
         <v>0.91923881554251174</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.0144141311179398</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A26)-PI()/2-ATAN($B$5*A26)</f>
         <v>-2.6011731533192091</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.86985294117647061</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.52191176470588241</v>
       </c>
     </row>
@@ -2452,31 +2456,31 @@
         <v>10.5</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A27*A27+1)</f>
         <v>3.1435006374831609</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f>$B$2/A27</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A27*A27+1)</f>
         <v>0.89655172413793105</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.93943697212140431</v>
       </c>
       <c r="F27">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A27)-PI()/2-ATAN($B$5*A27)</f>
         <v>-2.637288229798449</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.82248720338881409</v>
       </c>
       <c r="H27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.453934604156017</v>
       </c>
     </row>
@@ -2485,31 +2489,31 @@
         <v>11</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A28*A28+1)</f>
         <v>3.1336675266123191</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f>$B$2/A28</f>
         <v>0.31818181818181818</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A28*A28+1)</f>
         <v>0.87447463219520616</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.87191769564975385</v>
       </c>
       <c r="F28">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A28)-PI()/2-ATAN($B$5*A28)</f>
         <v>-2.672143804375235</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.77759168745941143</v>
       </c>
       <c r="H28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.39445105600213792</v>
       </c>
     </row>
@@ -2518,31 +2522,31 @@
         <v>11.5</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A29*A29+1)</f>
         <v>3.1234752377721211</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f>$B$2/A29</f>
         <v>0.30434782608695654</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A29*A29+1)</f>
         <v>0.85303232940222273</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.81091206544993044</v>
       </c>
       <c r="F29">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A29)-PI()/2-ATAN($B$5*A29)</f>
         <v>-2.705798886444704</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.73512037596156365</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.34231040115427619</v>
       </c>
     </row>
@@ -2551,31 +2555,31 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A30*A30+1)</f>
         <v>3.1129354269687419</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f>$B$2/A30</f>
         <v>0.29166666666666669</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A30*A30+1)</f>
         <v>0.83223971956382381</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.7556233144718878</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A30)-PI()/2-ATAN($B$5*A30)</f>
         <v>-2.7383111718709574</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.69500582794405186</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.29653581992279526</v>
       </c>
     </row>
@@ -2584,31 +2588,31 @@
         <v>12.5</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A31*A31+1)</f>
         <v>3.1020599286138464</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f>$B$2/A31</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A31*A31+1)</f>
         <v>0.8121035618207515</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.70537429676244467</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A31)-PI()/2-ATAN($B$5*A31)</f>
         <v>-2.7697365797412119</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.65716517663397267</v>
       </c>
       <c r="H31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.25629441888724941</v>
       </c>
     </row>
@@ -2617,31 +2621,31 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A32*A32+1)</f>
         <v>3.0908607233755814</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f>$B$2/A32</f>
         <v>0.26923076923076922</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A32*A32+1)</f>
         <v>0.79262398910460008</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.65958586516541473</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A32)-PI()/2-ATAN($B$5*A32)</f>
         <v>-2.8001289264325955</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.6215050193228695</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.22087332225166584</v>
       </c>
     </row>
@@ -2650,31 +2654,31 @@
         <v>13.5</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A33*A33+1)</f>
         <v>3.0793499067083969</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f>$B$2/A33</f>
         <v>0.25925925925925924</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A33*A33+1)</f>
         <v>0.7737958158134588</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.61775987083909834</v>
       </c>
       <c r="F33">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A33)-PI()/2-ATAN($B$5*A33)</f>
         <v>-2.8295397106875786</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.58792534043946043</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.18966035982324814</v>
       </c>
     </row>
@@ -2683,31 +2687,31 @@
         <v>14</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A34*A34+1)</f>
         <v>3.0675396581895567</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f>$B$2/A34</f>
         <v>0.25</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A34*A34+1)</f>
         <v>0.75560965183482542</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.57946564327853256</v>
       </c>
       <c r="F34">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A34)-PI()/2-ATAN($B$5*A34)</f>
         <v>-2.858017986993699</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.55632260880033724</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.16212830313609822</v>
       </c>
     </row>
@@ -2716,31 +2720,31 @@
         <v>14.5</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A35*A35+1)</f>
         <v>3.0554422117780695</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f>$B$2/A35</f>
         <v>0.2413793103448276</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A35*A35+1)</f>
         <v>0.73805284254475734</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.54432912646339016</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A35)-PI()/2-ATAN($B$5*A35)</f>
         <v>-2.885610308049372</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.52659218184211787</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.13782188483385091</v>
       </c>
     </row>
@@ -2749,31 +2753,31 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A36*A36+1)</f>
         <v>3.0430698270993948</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f>$B$2/A36</f>
         <v>0.23333333333333334</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A36*A36+1)</f>
         <v>0.7211102550927978</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.51202406716646287</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A36)-PI()/2-ATAN($B$5*A36)</f>
         <v>-2.9123607203127979</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.49863013698630138</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-0.11634703196347032</v>
       </c>
     </row>
@@ -2782,31 +2786,31 @@
         <v>15.5</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A37*A37+1)</f>
         <v>3.0304347618467213</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f>$B$2/A37</f>
         <v>0.22580645161290322</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A37*A37+1)</f>
         <v>0.70476493076872104</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.48226480696529717</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A37)-PI()/2-ATAN($B$5*A37)</f>
         <v>-2.9383107994963886</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.47233463571390866</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-9.7361881361673328E-2</v>
       </c>
     </row>
@@ -2815,31 +2819,31 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A38*A38+1)</f>
         <v>3.0175492453770922</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f>$B$2/A38</f>
         <v>0.21875</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A38*A38+1)</f>
         <v>0.68899862200413398</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.45480034072690673</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A38)-PI()/2-ATAN($B$5*A38)</f>
         <v>-2.9634997153585956</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.44760691108097622</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-8.0569243994575782E-2</v>
       </c>
     </row>
@@ -2848,31 +2852,31 @@
         <v>16.5</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A39*A39+1)</f>
         <v>3.0044254535682646</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f>$B$2/A39</f>
         <v>0.21212121212121213</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A39*A39+1)</f>
         <v>0.67379223092134743</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.42940938493868169</v>
       </c>
       <c r="F39">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A39)-PI()/2-ATAN($B$5*A39)</f>
         <v>-2.9879643172654236</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.42435195528772401</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-6.5710257318796123E-2</v>
       </c>
     </row>
@@ -2881,31 +2885,31 @@
         <v>17</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A40*A40+1)</f>
         <v>2.9910754849900427</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f>$B$2/A40</f>
         <v>0.20588235294117646</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A40*A40+1)</f>
         <v>0.65912616453241191</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.4058962584040845</v>
       </c>
       <c r="F40">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A40)-PI()/2-ATAN($B$5*A40)</f>
         <v>-3.0117392337714444</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.40247897106914471</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-5.2559018574911756E-2</v>
       </c>
     </row>
@@ -2914,31 +2918,31 @@
         <v>17.5</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A41*A41+1)</f>
         <v>2.977511338432115</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f>$B$2/A41</f>
         <v>0.2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A41*A41+1)</f>
         <v>0.64498061986388389</v>
       </c>
       <c r="E41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.38408742174273763</v>
       </c>
       <c r="F41">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A41)-PI()/2-ATAN($B$5*A41)</f>
         <v>-3.0348569809406576</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.3819016393442623</v>
       </c>
       <c r="H41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-4.0918032786885244E-2</v>
       </c>
     </row>
@@ -2947,31 +2951,31 @@
         <v>18</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A42*A42+1)</f>
         <v>2.9637448918190956</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f>$B$2/A42</f>
         <v>0.19444444444444445</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A42*A42+1)</f>
         <v>0.63133581053222165</v>
       </c>
       <c r="E42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.36382855512253842</v>
       </c>
       <c r="F42">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A42)-PI()/2-ATAN($B$5*A42)</f>
         <v>-3.0573480753303972</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.36253824579296273</v>
       </c>
       <c r="H42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-3.0614340755850108E-2</v>
       </c>
     </row>
@@ -2980,31 +2984,31 @@
         <v>18.5</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A43*A43+1)</f>
         <v>2.9497878825327737</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f>$B$2/A43</f>
         <v>0.1891891891891892</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A43*A43+1)</f>
         <v>0.61817214467511628</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.34498207869658604</v>
       </c>
       <c r="F43">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A43)-PI()/2-ATAN($B$5*A43)</f>
         <v>-3.0792411485355995</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.34431170075500456</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-2.1496216993082757E-2</v>
       </c>
     </row>
@@ -3013,31 +3017,31 @@
         <v>19</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A44*A44+1)</f>
         <v>2.9356518891514423</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f>$B$2/A44</f>
         <v>0.18421052631578946</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A44*A44+1)</f>
         <v>0.60547036268240895</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.32742503942728307</v>
       </c>
       <c r="F44">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A44)-PI()/2-ATAN($B$5*A44)</f>
         <v>-3.1005630609725081</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.32714947993464749</v>
       </c>
       <c r="H44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-1.3430347071001355E-2</v>
       </c>
     </row>
@@ -3046,31 +3050,31 @@
         <v>19.5</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A45*A45+1)</f>
         <v>2.9213483146067416</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f>$B$2/A45</f>
         <v>0.17948717948717949</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A45*A45+1)</f>
         <v>0.59321164187515796</v>
       </c>
       <c r="E45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.31104730285588811</v>
       </c>
       <c r="F45">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A45)-PI()/2-ATAN($B$5*A45)</f>
         <v>-3.1213390132028045</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.31098350768760824</v>
       </c>
       <c r="H45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-6.2994095146977512E-3</v>
       </c>
     </row>
@@ -3079,31 +3083,31 @@
         <v>20</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A46*A46+1)</f>
         <v>2.9068883707497264</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f>$B$2/A46</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A46*A46+1)</f>
         <v>0.58137767414994534</v>
       </c>
       <c r="E46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.29574999999999996</v>
       </c>
       <c r="F46">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A46)-PI()/2-ATAN($B$5*A46)</f>
         <v>-3.1415926535897931</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.29574999999999996</v>
       </c>
       <c r="H46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-3.623376555392243E-17</v>
       </c>
     </row>
@@ -3112,31 +3116,31 @@
         <v>20.5</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A47*A47+1)</f>
         <v>2.8922830643098458</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f>$B$2/A47</f>
         <v>0.17073170731707318</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A47*A47+1)</f>
         <v>0.56995072162783877</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.28144418872164917</v>
       </c>
       <c r="F47">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A47)-PI()/2-ATAN($B$5*A47)</f>
         <v>-3.1613461814618944</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.28138928048368511</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5.5591540778484145E-3</v>
       </c>
     </row>
@@ -3145,31 +3149,31 @@
         <v>21</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A48*A48+1)</f>
         <v>2.8775431842233163</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f>$B$2/A48</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A48*A48+1)</f>
         <v>0.55891365451005215</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.26804969618412433</v>
       </c>
       <c r="F48">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A48)-PI()/2-ATAN($B$5*A48)</f>
         <v>-3.1806204452558928</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.26784557966492811</v>
       </c>
       <c r="H48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1.0458732158344683E-2</v>
       </c>
     </row>
@@ -3178,31 +3182,31 @@
         <v>21.5</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A49*A49+1)</f>
         <v>2.862679290300866</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f>$B$2/A49</f>
         <v>0.16279069767441862</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A49*A49+1)</f>
         <v>0.54824997463026015</v>
       </c>
       <c r="E49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.25549411483660805</v>
       </c>
       <c r="F49">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A49)-PI()/2-ATAN($B$5*A49)</f>
         <v>-3.1994350353401906</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.2550668254060573</v>
       </c>
       <c r="H49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1.4770148727001881E-2</v>
       </c>
     </row>
@@ -3211,31 +3215,31 @@
         <v>22</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A50*A50+1)</f>
         <v>2.8477017031991028</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f>$B$2/A50</f>
         <v>0.15909090909090909</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A50*A50+1)</f>
         <v>0.53794382759153914</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.24371192905466121</v>
       </c>
       <c r="F50">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A50)-PI()/2-ATAN($B$5*A50)</f>
         <v>-3.2178083713907779</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.24300443036310571</v>
       </c>
       <c r="H50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1.8556701955000785E-2</v>
       </c>
     </row>
@@ -3244,31 +3248,31 @@
         <v>22.5</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A51*A51+1)</f>
         <v>2.8326204956547851</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f>$B$2/A51</f>
         <v>0.15555555555555556</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A51*A51+1)</f>
         <v>0.52798000586948191</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.23264375336561771</v>
       </c>
       <c r="F51">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A51)-PI()/2-ATAN($B$5*A51)</f>
         <v>-3.2357577843213017</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.23161308085288629</v>
       </c>
       <c r="H51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.1874568747217001E-2</v>
       </c>
     </row>
@@ -3277,31 +3281,31 @@
         <v>23</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A52*A52+1)</f>
         <v>2.8174454849369899</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f>$B$2/A52</f>
         <v>0.15217391304347827</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A52*A52+1)</f>
         <v>0.51834394483878499</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.22223566628724437</v>
       </c>
       <c r="F52">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A52)-PI()/2-ATAN($B$5*A52)</f>
         <v>-3.2532995928627129</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.22085053030263435</v>
       </c>
       <c r="H52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.4773668181773813E-2</v>
       </c>
     </row>
@@ -3310,31 +3314,31 @@
         <v>23.5</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A53*A53+1)</f>
         <v>2.8021862264686175</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f>$B$2/A53</f>
         <v>0.14893617021276595</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A53*A53+1)</f>
         <v>0.50902171332644763</v>
       </c>
       <c r="E53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.21243862634888935</v>
       </c>
       <c r="F53">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A53)-PI()/2-ATAN($B$5*A53)</f>
         <v>-3.2704491749551172</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.21067739951963591</v>
       </c>
       <c r="H53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.7298411980310258E-2</v>
       </c>
     </row>
@@ -3343,31 +3347,31 @@
         <v>24</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A54*A54+1)</f>
         <v>2.7868520085657682</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f>$B$2/A54</f>
         <v>0.14583333333333334</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A54*A54+1)</f>
         <v>0.5</v>
       </c>
       <c r="E54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.2032079589579206</v>
       </c>
       <c r="F54">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A54)-PI()/2-ATAN($B$5*A54)</f>
         <v>-3.2872210341606158</v>
       </c>
       <c r="G54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.20105698529411761</v>
       </c>
       <c r="H54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.9488357843137244E-2</v>
       </c>
     </row>
@@ -3376,31 +3380,31 @@
         <v>24.5</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A55*A55+1)</f>
         <v>2.7714518482412149</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f>$B$2/A55</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A55*A55+1)</f>
         <v>0.49126609665459514</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.19450290450737501</v>
       </c>
       <c r="F55">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A55)-PI()/2-ATAN($B$5*A55)</f>
         <v>-3.303628861335894</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.19195507829288652</v>
       </c>
       <c r="H55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.1378779125020836E-2</v>
       </c>
     </row>
@@ -3409,31 +3413,31 @@
         <v>25</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A56*A56+1)</f>
         <v>2.7559944880165363</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f>$B$2/A56</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A56*A56+1)</f>
         <v>0.4828078792603348</v>
       </c>
       <c r="E56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1862862195617411</v>
       </c>
       <c r="F56">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A56)-PI()/2-ATAN($B$5*A56)</f>
         <v>-3.3196855918209907</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.183339790778768</v>
       </c>
       <c r="H56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.3001162340178213E-2</v>
       </c>
     </row>
@@ -3442,31 +3446,31 @@
         <v>25.5</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A57*A57+1)</f>
         <v>2.740488393686304</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
+        <f>$B$2/A57</f>
         <v>0.13725490196078433</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A57*A57+1)</f>
         <v>0.47461378746399308</v>
       </c>
       <c r="E57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1785238241607843</v>
       </c>
       <c r="F57">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A57)-PI()/2-ATAN($B$5*A57)</f>
         <v>-3.3354034584089902</v>
       </c>
       <c r="G57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.17518139437356012</v>
       </c>
       <c r="H57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.4383642307437928E-2</v>
       </c>
     </row>
@@ -3475,31 +3479,31 @@
         <v>26</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A58*A58+1)</f>
         <v>2.7249417529770703</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f>$B$2/A58</f>
         <v>0.13461538461538461</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A58*A58+1)</f>
         <v>0.46667280310152975</v>
       </c>
       <c r="E58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.17118448928945076</v>
       </c>
       <c r="F58">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A58)-PI()/2-ATAN($B$5*A58)</f>
         <v>-3.3507940403627576</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.16745216784737194</v>
       </c>
       <c r="H58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.5551383327595873E-2</v>
       </c>
     </row>
@@ -3508,31 +3512,31 @@
         <v>26.5</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A59*A59+1)</f>
         <v>2.7093624750437026</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f>$B$2/A59</f>
         <v>0.13207547169811321</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A59*A59+1)</f>
         <v>0.458974428164515</v>
       </c>
       <c r="E59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.16423955940971791</v>
       </c>
       <c r="F59">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A59)-PI()/2-ATAN($B$5*A59)</f>
         <v>-3.3658683087411303</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.16012625474672657</v>
       </c>
       <c r="H59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.6526913582791087E-2</v>
       </c>
     </row>
@@ -3541,31 +3545,31 @@
         <v>27</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A60*A60+1)</f>
         <v>2.6937581907458563</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f>$B$2/A60</f>
         <v>0.12962962962962962</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A60*A60+1)</f>
         <v>0.45150866257067201</v>
       </c>
       <c r="E60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.15766270566568857</v>
       </c>
       <c r="F60">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A60)-PI()/2-ATAN($B$5*A60)</f>
         <v>-3.3806366682896236</v>
       </c>
       <c r="G60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.15317953055329531</v>
       </c>
       <c r="H60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.7330418927432635E-2</v>
       </c>
     </row>
@@ -3574,31 +3578,31 @@
         <v>27.5</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A61*A61+1)</f>
         <v>2.6781362536479447</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f>$B$2/A61</f>
         <v>0.12727272727272726</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A61*A61+1)</f>
         <v>0.44426598201271567</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.15142970597882394</v>
       </c>
       <c r="F61">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A61)-PI()/2-ATAN($B$5*A61)</f>
         <v>-3.3951089961408503</v>
       </c>
       <c r="G61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.14658947898313618</v>
       </c>
       <c r="H61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.7980001372903437E-2</v>
       </c>
     </row>
@@ -3607,31 +3611,31 @@
         <v>28</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A62*A62+1)</f>
         <v>2.6625037416868813</v>
       </c>
       <c r="C62">
-        <f t="shared" si="1"/>
+        <f>$B$2/A62</f>
         <v>0.125</v>
       </c>
       <c r="D62">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A62*A62+1)</f>
         <v>0.43723731609760308</v>
       </c>
       <c r="E62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.14551824876437472</v>
       </c>
       <c r="F62">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A62)-PI()/2-ATAN($B$5*A62)</f>
         <v>-3.4092946775582984</v>
       </c>
       <c r="G62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.14033507698381364</v>
       </c>
       <c r="H62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.8491906829846018E-2</v>
       </c>
     </row>
@@ -3640,31 +3644,31 @@
         <v>28.5</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A63*A63+1)</f>
         <v>2.6468674594530985</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
+        <f>$B$2/A63</f>
         <v>0.12280701754385964</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A63*A63+1)</f>
         <v>0.43041402693780528</v>
       </c>
       <c r="E63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.13990775743784076</v>
       </c>
       <c r="F63">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A63)-PI()/2-ATAN($B$5*A63)</f>
         <v>-3.4232026389446402</v>
       </c>
       <c r="G63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.13439668795665088</v>
       </c>
       <c r="H63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.888072604219605E-2</v>
       </c>
     </row>
@@ -3673,31 +3677,31 @@
         <v>29</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A64*A64+1)</f>
         <v>2.6312339410317596</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
+        <f>$B$2/A64</f>
         <v>0.1206896551724138</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A64*A64+1)</f>
         <v>0.42378788831522546</v>
       </c>
       <c r="E64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.13457923325400664</v>
       </c>
       <c r="F64">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A64)-PI()/2-ATAN($B$5*A64)</f>
         <v>-3.4368413783226703</v>
       </c>
       <c r="G64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.12875596271801987</v>
       </c>
       <c r="H64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.915957210941156E-2</v>
       </c>
     </row>
@@ -3706,31 +3710,31 @@
         <v>29.5</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A65*A65+1)</f>
         <v>2.6156094533527696</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f>$B$2/A65</f>
         <v>0.11864406779661017</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A65*A65+1)</f>
         <v>0.41735106550526724</v>
       </c>
       <c r="E65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.12951511434096605</v>
       </c>
       <c r="F65">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A65)-PI()/2-ATAN($B$5*A65)</f>
         <v>-3.4502189934838556</v>
       </c>
       <c r="G65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.12339574771264783</v>
       </c>
       <c r="H65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.9340237533472995E-2</v>
       </c>
     </row>
@@ -3739,31 +3743,31 @@
         <v>30</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A66*A66+1)</f>
         <v>2.6</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f>$B$2/A66</f>
         <v>0.11666666666666667</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A66*A66+1)</f>
         <v>0.41109609582188933</v>
       </c>
       <c r="E66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1246991490659731</v>
       </c>
       <c r="F66">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A66)-PI()/2-ATAN($B$5*A66)</f>
         <v>-3.4633432079864352</v>
       </c>
       <c r="G66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.11830000000000002</v>
       </c>
       <c r="H66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.9433333333333313E-2</v>
       </c>
     </row>
@@ -3772,31 +3776,31 @@
         <v>30.5</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A67*A67+1)</f>
         <v>2.5844113254321255</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
+        <f>$B$2/A67</f>
         <v>0.11475409836065574</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A67*A67+1)</f>
         <v>0.40501586992313016</v>
       </c>
       <c r="E67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.12011628210596025</v>
       </c>
       <c r="F67">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A67)-PI()/2-ATAN($B$5*A67)</f>
         <v>-3.4762213951723595</v>
       </c>
       <c r="G67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.1134537085492668</v>
       </c>
       <c r="H67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.9448412431638512E-2</v>
       </c>
     </row>
@@ -3805,31 +3809,31 @@
         <v>31</v>
       </c>
       <c r="B68">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A68*A68+1)</f>
         <v>2.5688489195695423</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f>$B$2/A68</f>
         <v>0.11290322580645161</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A68*A68+1)</f>
         <v>0.39910361389958582</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.11575255179896379</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A68)-PI()/2-ATAN($B$5*A68)</f>
         <v>-3.4888606003601179</v>
       </c>
       <c r="G68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.1088428213973026</v>
       </c>
       <c r="H68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.9394079228314047E-2</v>
       </c>
     </row>
@@ -3838,31 +3842,31 @@
         <v>31.5</v>
       </c>
       <c r="B69">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A69*A69+1)</f>
         <v>2.5533180227040067</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f>$B$2/A69</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A69*A69+1)</f>
         <v>0.39335287215489056</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.11159499752838521</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A69)-PI()/2-ATAN($B$5*A69)</f>
         <v>-3.5012675613588868</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.1044541782454925</v>
       </c>
       <c r="H69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.9278087025963748E-2</v>
       </c>
     </row>
@@ -3871,31 +3875,31 @@
         <v>32</v>
       </c>
       <c r="B70">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A70*A70+1)</f>
         <v>2.5378236306898483</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f>$B$2/A70</f>
         <v>0.109375</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A70*A70+1)</f>
         <v>0.3877574910767308</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.10763157604407417</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A70)-PI()/2-ATAN($B$5*A70)</f>
         <v>-3.5134487274383748</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-0.10027544809478339</v>
       </c>
       <c r="H70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.9107424756965554E-2</v>
       </c>
     </row>
@@ -3904,31 +3908,31 @@
         <v>32.5</v>
       </c>
       <c r="B71">
-        <f t="shared" si="0"/>
+        <f>$B$1/SQRT($B$4*$B$4*A71*A71+1)</f>
         <v>2.5223705003778627</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f>$B$2/A71</f>
         <v>0.1076923076923077</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f>$B$3/SQRT($B$5*$B$5*A71*A71+1)</f>
         <v>0.38231160348878002</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.10385108575608924</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f>-ATAN($B$4*A71)-PI()/2-ATAN($B$5*A71)</f>
         <v>-3.5254102768783619</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>-9.6295071542130364E-2</v>
       </c>
       <c r="H71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.8888394276629566E-2</v>
       </c>
     </row>
@@ -3937,31 +3941,31 @@
         <v>33</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72:B78" si="7">$B$1/SQRT($B$4*$B$4*A72*A72+1)</f>
+        <f>$B$1/SQRT($B$4*$B$4*A72*A72+1)</f>
         <v>2.5069631552552512</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:C78" si="8">$B$2/A72</f>
+        <f>$B$2/A72</f>
         <v>0.10606060606060606</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D78" si="9">$B$3/SQRT($B$5*$B$5*A72*A72+1)</f>
+        <f>$B$3/SQRT($B$5*$B$5*A72*A72+1)</f>
         <v>0.37700961386773196</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E78" si="10">B72*C72*D72</f>
+        <f t="shared" ref="E72:E78" si="3">B72*C72*D72</f>
         <v>0.10024309815157413</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F78" si="11">-ATAN($B$4*A72)-PI()/2-ATAN($B$5*A72)</f>
+        <f>-ATAN($B$4*A72)-PI()/2-ATAN($B$5*A72)</f>
         <v>-3.5371581332122135</v>
       </c>
       <c r="G72">
-        <f t="shared" ref="G72:G78" si="12">E72*COS(F72)</f>
+        <f t="shared" ref="G72:G78" si="4">E72*COS(F72)</f>
         <v>-9.2502207385726537E-2</v>
       </c>
       <c r="H72">
-        <f t="shared" ref="H72:H78" si="13">E72*SIN(F72)</f>
+        <f t="shared" ref="H72:H78" si="5">E72*SIN(F72)</f>
         <v>3.862667932652461E-2</v>
       </c>
     </row>
@@ -3970,31 +3974,31 @@
         <v>33.5</v>
       </c>
       <c r="B73">
-        <f t="shared" si="7"/>
+        <f>$B$1/SQRT($B$4*$B$4*A73*A73+1)</f>
         <v>2.491605891257239</v>
       </c>
       <c r="C73">
-        <f t="shared" si="8"/>
+        <f>$B$2/A73</f>
         <v>0.1044776119402985</v>
       </c>
       <c r="D73">
-        <f t="shared" si="9"/>
+        <f>$B$3/SQRT($B$5*$B$5*A73*A73+1)</f>
         <v>0.37184618430496774</v>
       </c>
       <c r="E73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>9.6797895584932514E-2</v>
       </c>
       <c r="F73">
-        <f t="shared" si="11"/>
+        <f>-ATAN($B$4*A73)-PI()/2-ATAN($B$5*A73)</f>
         <v>-3.5486979802695302</v>
       </c>
       <c r="G73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>-8.8886683210133918E-2</v>
       </c>
       <c r="H73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>3.8327407133444277E-2</v>
       </c>
     </row>
@@ -4003,31 +4007,31 @@
         <v>34</v>
       </c>
       <c r="B74">
-        <f t="shared" si="7"/>
+        <f>$B$1/SQRT($B$4*$B$4*A74*A74+1)</f>
         <v>2.4763027827182427</v>
       </c>
       <c r="C74">
-        <f t="shared" si="8"/>
+        <f>$B$2/A74</f>
         <v>0.10294117647058823</v>
       </c>
       <c r="D74">
-        <f t="shared" si="9"/>
+        <f>$B$3/SQRT($B$5*$B$5*A74*A74+1)</f>
         <v>0.36681622118901519</v>
       </c>
       <c r="E74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>9.3506414778468244E-2</v>
       </c>
       <c r="F74">
-        <f t="shared" si="11"/>
+        <f>-ATAN($B$4*A74)-PI()/2-ATAN($B$5*A74)</f>
         <v>-3.5600352761146929</v>
       </c>
       <c r="G74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>-8.5438949645475284E-2</v>
       </c>
       <c r="H74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>3.7995203489399616E-2</v>
       </c>
     </row>
@@ -4036,31 +4040,31 @@
         <v>34.5</v>
       </c>
       <c r="B75">
-        <f t="shared" si="7"/>
+        <f>$B$1/SQRT($B$4*$B$4*A75*A75+1)</f>
         <v>2.4610576884326356</v>
       </c>
       <c r="C75">
-        <f t="shared" si="8"/>
+        <f>$B$2/A75</f>
         <v>0.10144927536231885</v>
       </c>
       <c r="D75">
-        <f t="shared" si="9"/>
+        <f>$B$3/SQRT($B$5*$B$5*A75*A75+1)</f>
         <v>0.36191486258260569</v>
       </c>
       <c r="E75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>9.0360195446648375E-2</v>
       </c>
       <c r="F75">
-        <f t="shared" si="11"/>
+        <f>-ATAN($B$4*A75)-PI()/2-ATAN($B$5*A75)</f>
         <v>-3.5711752659701772</v>
       </c>
       <c r="G75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>-8.2150038016961274E-2</v>
       </c>
       <c r="H75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>3.7634242053857174E-2</v>
       </c>
     </row>
@@ -4069,31 +4073,31 @@
         <v>35</v>
       </c>
       <c r="B76">
-        <f t="shared" si="7"/>
+        <f>$B$1/SQRT($B$4*$B$4*A76*A76+1)</f>
         <v>2.4458742577973527</v>
       </c>
       <c r="C76">
-        <f t="shared" si="8"/>
+        <f>$B$2/A76</f>
         <v>0.1</v>
       </c>
       <c r="D76">
-        <f t="shared" si="9"/>
+        <f>$B$3/SQRT($B$5*$B$5*A76*A76+1)</f>
         <v>0.35713746626659143</v>
       </c>
       <c r="E76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>8.7351333523642646E-2</v>
       </c>
       <c r="F76">
-        <f t="shared" si="11"/>
+        <f>-ATAN($B$4*A76)-PI()/2-ATAN($B$5*A76)</f>
         <v>-3.5821229942063066</v>
       </c>
       <c r="G76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>-7.9011521122057088E-2</v>
       </c>
       <c r="H76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>3.7248288528969796E-2</v>
       </c>
     </row>
@@ -4102,31 +4106,31 @@
         <v>35.5</v>
       </c>
       <c r="B77">
-        <f t="shared" si="7"/>
+        <f>$B$1/SQRT($B$4*$B$4*A77*A77+1)</f>
         <v>2.4307559370106397</v>
       </c>
       <c r="C77">
-        <f t="shared" si="8"/>
+        <f>$B$2/A77</f>
         <v>9.8591549295774641E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="9"/>
+        <f>$B$3/SQRT($B$5*$B$5*A77*A77+1)</f>
         <v>0.35247959842209936</v>
       </c>
       <c r="E77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>8.4472438532077587E-2</v>
       </c>
       <c r="F77">
-        <f t="shared" si="11"/>
+        <f>-ATAN($B$4*A77)-PI()/2-ATAN($B$5*A77)</f>
         <v>-3.5928833154723678</v>
       </c>
       <c r="G77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>-7.6015476892459674E-2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>3.6840740279852638E-2</v>
       </c>
     </row>
@@ -4135,31 +4139,31 @@
         <v>36</v>
       </c>
       <c r="B78">
-        <f t="shared" si="7"/>
+        <f>$B$1/SQRT($B$4*$B$4*A78*A78+1)</f>
         <v>2.4157059753032906</v>
       </c>
       <c r="C78">
-        <f t="shared" si="8"/>
+        <f>$B$2/A78</f>
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="9"/>
+        <f>$B$3/SQRT($B$5*$B$5*A78*A78+1)</f>
         <v>0.34793702292192297</v>
       </c>
       <c r="E78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>8.171659468211237E-2</v>
       </c>
       <c r="F78">
-        <f t="shared" si="11"/>
+        <f>-ATAN($B$4*A78)-PI()/2-ATAN($B$5*A78)</f>
         <v>-3.6034609050378794</v>
       </c>
       <c r="G78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>-7.3154454716712294E-2</v>
       </c>
       <c r="H78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>3.641466190343013E-2</v>
       </c>
     </row>
